--- a/Memorys/Assets/Sounds/サウンド素材リスト.xlsx
+++ b/Memorys/Assets/Sounds/サウンド素材リスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NAOTO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NAOTO\Documents\Memorys\Memorys\Assets\Sounds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -685,6 +685,17 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Player_Squat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのしゃがみ音</t>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -862,6 +873,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -870,9 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1208,7 +1219,7 @@
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1291,7 +1302,7 @@
       <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1304,7 +1315,7 @@
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -1315,7 +1326,7 @@
       <c r="D12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
@@ -1486,10 +1497,10 @@
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -1497,10 +1508,10 @@
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -1508,10 +1519,10 @@
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -1519,10 +1530,10 @@
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -1530,39 +1541,50 @@
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
     </row>
